--- a/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.44879405719883</v>
+        <v>13.85955650277073</v>
       </c>
       <c r="C2">
-        <v>15.13922555114887</v>
+        <v>7.877718822632551</v>
       </c>
       <c r="D2">
-        <v>9.706745442570206</v>
+        <v>10.54566321321749</v>
       </c>
       <c r="E2">
-        <v>30.1855736392513</v>
+        <v>29.22213879625076</v>
       </c>
       <c r="F2">
-        <v>63.40406030866881</v>
+        <v>64.1238170625267</v>
       </c>
       <c r="G2">
-        <v>2.038789477076198</v>
+        <v>2.097727885959582</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.05390941246359</v>
+        <v>12.34021683542027</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80661145293553</v>
+        <v>12.81410379899892</v>
       </c>
       <c r="C3">
-        <v>13.98261967373159</v>
+        <v>7.290420831100562</v>
       </c>
       <c r="D3">
-        <v>9.20833925051773</v>
+        <v>10.08885564833401</v>
       </c>
       <c r="E3">
-        <v>27.82367688212937</v>
+        <v>27.00974645894351</v>
       </c>
       <c r="F3">
-        <v>59.31068531041522</v>
+        <v>60.42350809916155</v>
       </c>
       <c r="G3">
-        <v>2.055256686889114</v>
+        <v>2.110379344578891</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.62143472826206</v>
+        <v>11.43838678255556</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75971030862796</v>
+        <v>12.14487692265738</v>
       </c>
       <c r="C4">
-        <v>13.24797362124222</v>
+        <v>6.917030431193877</v>
       </c>
       <c r="D4">
-        <v>8.899004775940696</v>
+        <v>9.802967662794206</v>
       </c>
       <c r="E4">
-        <v>26.32738167983716</v>
+        <v>25.5982802383252</v>
       </c>
       <c r="F4">
-        <v>56.73537609151794</v>
+        <v>58.08471870783401</v>
       </c>
       <c r="G4">
-        <v>2.065418576752478</v>
+        <v>2.118247050400991</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.70859024083423</v>
+        <v>10.86135270024674</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.32287275084706</v>
+        <v>11.86508348315788</v>
       </c>
       <c r="C5">
-        <v>12.94199838917121</v>
+        <v>6.761481963420876</v>
       </c>
       <c r="D5">
-        <v>8.772045180555864</v>
+        <v>9.685102888849469</v>
       </c>
       <c r="E5">
-        <v>25.705019115987</v>
+        <v>25.00912561261854</v>
       </c>
       <c r="F5">
-        <v>55.66988659038832</v>
+        <v>57.11499412373422</v>
       </c>
       <c r="G5">
-        <v>2.069582030743736</v>
+        <v>2.121483249008945</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.32774495120815</v>
+        <v>10.62013735977565</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24970548361511</v>
+        <v>11.81819087076451</v>
       </c>
       <c r="C6">
-        <v>12.89078086289416</v>
+        <v>6.735443867269346</v>
       </c>
       <c r="D6">
-        <v>8.750907738792961</v>
+        <v>9.665449479824723</v>
       </c>
       <c r="E6">
-        <v>25.60088744744859</v>
+        <v>24.91043594039932</v>
       </c>
       <c r="F6">
-        <v>55.49198767171904</v>
+        <v>56.95297483523027</v>
       </c>
       <c r="G6">
-        <v>2.070274977719454</v>
+        <v>2.122022567650285</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.26395823155015</v>
+        <v>10.57971145730306</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75386095848462</v>
+        <v>12.14113244744224</v>
       </c>
       <c r="C7">
-        <v>13.24387440431125</v>
+        <v>6.914946587117436</v>
       </c>
       <c r="D7">
-        <v>8.897296277534881</v>
+        <v>9.801383606735413</v>
       </c>
       <c r="E7">
-        <v>26.31904058704692</v>
+        <v>25.59039204625535</v>
       </c>
       <c r="F7">
-        <v>56.72107179514081</v>
+        <v>58.07170772999952</v>
       </c>
       <c r="G7">
-        <v>2.065474624126697</v>
+        <v>2.118290567053943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.70349046778997</v>
+        <v>10.85812442103429</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.89024809584959</v>
+        <v>13.50461887623752</v>
       </c>
       <c r="C8">
-        <v>14.74522286373904</v>
+        <v>7.677761759295934</v>
       </c>
       <c r="D8">
-        <v>9.535527022015399</v>
+        <v>10.38926932953432</v>
       </c>
       <c r="E8">
-        <v>29.38009162412961</v>
+        <v>28.46991380393672</v>
       </c>
       <c r="F8">
-        <v>62.00515133384364</v>
+        <v>62.86183254891111</v>
       </c>
       <c r="G8">
-        <v>2.044463010615939</v>
+        <v>2.102072602324935</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.56659367535154</v>
+        <v>12.0339707473161</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.80116222095908</v>
+        <v>15.97270660469032</v>
       </c>
       <c r="C9">
-        <v>17.51901080027195</v>
+        <v>9.081183224594119</v>
       </c>
       <c r="D9">
-        <v>10.76644341766139</v>
+        <v>11.50060020313689</v>
       </c>
       <c r="E9">
-        <v>35.07302946640706</v>
+        <v>33.72848150236941</v>
       </c>
       <c r="F9">
-        <v>71.9147564001602</v>
+        <v>71.73055494194213</v>
       </c>
       <c r="G9">
-        <v>2.003143063211508</v>
+        <v>2.070801449576751</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.98165720067997</v>
+        <v>14.16557047176945</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.55289449427463</v>
+        <v>17.67880040255701</v>
       </c>
       <c r="C10">
-        <v>19.49474683774806</v>
+        <v>10.0707043383839</v>
       </c>
       <c r="D10">
-        <v>11.67059874479218</v>
+        <v>12.29574255579062</v>
       </c>
       <c r="E10">
-        <v>39.16584465516084</v>
+        <v>37.4094044319177</v>
       </c>
       <c r="F10">
-        <v>79.00684777146012</v>
+        <v>77.95118851606007</v>
       </c>
       <c r="G10">
-        <v>1.971802299432376</v>
+        <v>2.047726048535091</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.38985848347887</v>
+        <v>15.64280674083355</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.79296876172566</v>
+        <v>18.43671821547934</v>
       </c>
       <c r="C11">
-        <v>20.39280438949842</v>
+        <v>10.51595494924174</v>
       </c>
       <c r="D11">
-        <v>12.08634643069309</v>
+        <v>12.65436633784723</v>
       </c>
       <c r="E11">
-        <v>41.03932165966403</v>
+        <v>39.05955641110484</v>
       </c>
       <c r="F11">
-        <v>82.23679346513413</v>
+        <v>80.72765941277196</v>
       </c>
       <c r="G11">
-        <v>1.957051110498241</v>
+        <v>2.037088252902143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.47701404693575</v>
+        <v>16.30031406076174</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.26253241429277</v>
+        <v>18.72162691865889</v>
       </c>
       <c r="C12">
-        <v>20.73422887971967</v>
+        <v>10.68428516123184</v>
       </c>
       <c r="D12">
-        <v>12.24496545586195</v>
+        <v>12.78990534453297</v>
       </c>
       <c r="E12">
-        <v>41.75405933061266</v>
+        <v>39.68253547095798</v>
       </c>
       <c r="F12">
-        <v>83.49310755992187</v>
+        <v>81.77265684761484</v>
       </c>
       <c r="G12">
-        <v>1.951362132139559</v>
+        <v>2.033027463597001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.88902378971647</v>
+        <v>16.54770076123674</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.16137288249596</v>
+        <v>18.66035069262789</v>
       </c>
       <c r="C13">
-        <v>20.66060907268607</v>
+        <v>10.64803679796366</v>
       </c>
       <c r="D13">
-        <v>12.21074060438329</v>
+        <v>12.76072290011979</v>
       </c>
       <c r="E13">
-        <v>41.59982197885316</v>
+        <v>39.54842090922009</v>
       </c>
       <c r="F13">
-        <v>83.22241207868896</v>
+        <v>81.54785787794808</v>
       </c>
       <c r="G13">
-        <v>1.952592551462627</v>
+        <v>2.033903694491131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.80024628255446</v>
+        <v>16.49448383351052</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.83158931193781</v>
+        <v>18.46019654497271</v>
       </c>
       <c r="C14">
-        <v>20.42085665170233</v>
+        <v>10.52980636381285</v>
       </c>
       <c r="D14">
-        <v>12.09936858044112</v>
+        <v>12.66552128521662</v>
       </c>
       <c r="E14">
-        <v>41.09799256519121</v>
+        <v>39.11083689026047</v>
       </c>
       <c r="F14">
-        <v>82.34010186629691</v>
+        <v>80.81375143864315</v>
       </c>
       <c r="G14">
-        <v>1.95658535713039</v>
+        <v>2.036754899593709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.51089339974252</v>
+        <v>16.3206955848856</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.62964147414486</v>
+        <v>18.33734020114859</v>
       </c>
       <c r="C15">
-        <v>20.2742276255876</v>
+        <v>10.45736493410755</v>
       </c>
       <c r="D15">
-        <v>12.031323600193</v>
+        <v>12.60717940236582</v>
       </c>
       <c r="E15">
-        <v>40.79142395445425</v>
+        <v>38.84261031460015</v>
       </c>
       <c r="F15">
-        <v>81.7999442263242</v>
+        <v>80.36330186017408</v>
       </c>
       <c r="G15">
-        <v>1.959016538070654</v>
+        <v>2.038496707970573</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.33375204169928</v>
+        <v>16.21405337693335</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.47174843459967</v>
+        <v>17.6289446168209</v>
       </c>
       <c r="C16">
-        <v>19.43615707296661</v>
+        <v>10.04154234433967</v>
       </c>
       <c r="D16">
-        <v>11.64356066576235</v>
+        <v>12.27225772869728</v>
       </c>
       <c r="E16">
-        <v>39.04392714556043</v>
+        <v>37.30120286040043</v>
       </c>
       <c r="F16">
-        <v>78.79673456735536</v>
+        <v>77.76876743014284</v>
       </c>
       <c r="G16">
-        <v>1.972753854194641</v>
+        <v>2.048417429571088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.31876327187521</v>
+        <v>15.59958497170111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.75946125908247</v>
+        <v>17.19004537500432</v>
       </c>
       <c r="C17">
-        <v>18.92275391830592</v>
+        <v>9.785474458503471</v>
       </c>
       <c r="D17">
-        <v>11.4071530996274</v>
+        <v>12.06611535219726</v>
       </c>
       <c r="E17">
-        <v>37.97711954025457</v>
+        <v>36.35040637231811</v>
       </c>
       <c r="F17">
-        <v>76.95463857231272</v>
+        <v>76.16424285958236</v>
       </c>
       <c r="G17">
-        <v>1.981034683022793</v>
+        <v>2.05445945426011</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.69492114874079</v>
+        <v>15.21923447813492</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.34854937683108</v>
+        <v>16.93585355736098</v>
       </c>
       <c r="C18">
-        <v>18.6272838076495</v>
+        <v>9.637701046415632</v>
       </c>
       <c r="D18">
-        <v>11.27155446111354</v>
+        <v>11.94724326948085</v>
       </c>
       <c r="E18">
-        <v>37.36434590094999</v>
+        <v>35.80113138149256</v>
       </c>
       <c r="F18">
-        <v>75.89392689301877</v>
+        <v>75.2362469810414</v>
       </c>
       <c r="G18">
-        <v>1.985753442115302</v>
+        <v>2.057922285128603</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.33520582571412</v>
+        <v>14.99906861339972</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20916836248328</v>
+        <v>16.84947405577971</v>
       </c>
       <c r="C19">
-        <v>18.52717502145532</v>
+        <v>9.587571710993251</v>
       </c>
       <c r="D19">
-        <v>11.22569397188584</v>
+        <v>11.9069382506357</v>
       </c>
       <c r="E19">
-        <v>37.15692006764245</v>
+        <v>35.61470036632031</v>
       </c>
       <c r="F19">
-        <v>75.53448843603985</v>
+        <v>74.92113179039951</v>
       </c>
       <c r="G19">
-        <v>1.987344380804143</v>
+        <v>2.059092948683817</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.21321834736625</v>
+        <v>14.92427069641495</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.83540149478487</v>
+        <v>17.23694448436325</v>
       </c>
       <c r="C20">
-        <v>18.97741537794397</v>
+        <v>9.812781208276144</v>
       </c>
       <c r="D20">
-        <v>11.43227670842682</v>
+        <v>12.08808992269221</v>
       </c>
       <c r="E20">
-        <v>38.09057482005398</v>
+        <v>36.45185836190883</v>
       </c>
       <c r="F20">
-        <v>77.15083218769919</v>
+        <v>76.33556860661457</v>
       </c>
       <c r="G20">
-        <v>1.98015794731056</v>
+        <v>2.05381763302869</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.76141341592465</v>
+        <v>15.25986492265206</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.92843978085469</v>
+        <v>18.51903897717073</v>
       </c>
       <c r="C21">
-        <v>20.49122735849883</v>
+        <v>10.56453717855506</v>
       </c>
       <c r="D21">
-        <v>12.1320438157373</v>
+        <v>12.69348977511485</v>
       </c>
       <c r="E21">
-        <v>41.24521369951402</v>
+        <v>39.23940293087072</v>
       </c>
       <c r="F21">
-        <v>82.59918996323736</v>
+        <v>81.02953773641919</v>
       </c>
       <c r="G21">
-        <v>1.95541567216919</v>
+        <v>2.035918423430066</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.59586002907026</v>
+        <v>16.37178038546273</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.29737801788523</v>
+        <v>19.34505167537053</v>
       </c>
       <c r="C22">
-        <v>21.48948691152208</v>
+        <v>11.05450753807047</v>
       </c>
       <c r="D22">
-        <v>12.59668954442931</v>
+        <v>13.08773832304826</v>
       </c>
       <c r="E22">
-        <v>43.34043586537582</v>
+        <v>41.05118049739585</v>
       </c>
       <c r="F22">
-        <v>86.26334829473858</v>
+        <v>84.06093779563648</v>
       </c>
       <c r="G22">
-        <v>1.938622038751351</v>
+        <v>2.024023253354891</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.7977619602671</v>
+        <v>17.08947382758577</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.56597040418195</v>
+        <v>18.90508343905093</v>
       </c>
       <c r="C23">
-        <v>20.95527870378624</v>
+        <v>10.79295919910309</v>
       </c>
       <c r="D23">
-        <v>12.34779758410972</v>
+        <v>12.87737608822606</v>
       </c>
       <c r="E23">
-        <v>42.21758318911981</v>
+        <v>40.08449410800627</v>
       </c>
       <c r="F23">
-        <v>84.30521294501453</v>
+        <v>82.44582817268743</v>
       </c>
       <c r="G23">
-        <v>1.947655424939252</v>
+        <v>2.030394697474126</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.15537785357799</v>
+        <v>16.70706391916245</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.80107341945054</v>
+        <v>17.21574723693564</v>
       </c>
       <c r="C24">
-        <v>18.95270399408849</v>
+        <v>9.800437591311436</v>
       </c>
       <c r="D24">
-        <v>11.42091738154663</v>
+        <v>12.07815634764454</v>
       </c>
       <c r="E24">
-        <v>38.03928023655421</v>
+        <v>36.4060002857472</v>
       </c>
       <c r="F24">
-        <v>77.06213850980652</v>
+        <v>76.25812956293015</v>
       </c>
       <c r="G24">
-        <v>1.980554448070535</v>
+        <v>2.054107833185187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.73135567297186</v>
+        <v>15.24150059793919</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76861226295445</v>
+        <v>15.32534258410977</v>
       </c>
       <c r="C25">
-        <v>16.78309700436547</v>
+        <v>8.710033840256374</v>
       </c>
       <c r="D25">
-        <v>10.43464651616474</v>
+        <v>11.20410068181421</v>
       </c>
       <c r="E25">
-        <v>33.55723982304617</v>
+        <v>32.34241105512557</v>
       </c>
       <c r="F25">
-        <v>69.27524382688102</v>
+        <v>69.38585310746174</v>
       </c>
       <c r="G25">
-        <v>2.014415888910989</v>
+        <v>2.079243927110146</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.07928174726437</v>
+        <v>13.60593272835668</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85955650277073</v>
+        <v>13.45540074787469</v>
       </c>
       <c r="C2">
-        <v>7.877718822632551</v>
+        <v>10.40548060223844</v>
       </c>
       <c r="D2">
-        <v>10.54566321321749</v>
+        <v>4.454986844040684</v>
       </c>
       <c r="E2">
-        <v>29.22213879625076</v>
+        <v>29.32421710343202</v>
       </c>
       <c r="F2">
-        <v>64.1238170625267</v>
+        <v>23.69451908300793</v>
       </c>
       <c r="G2">
-        <v>2.097727885959582</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.69404442589753</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.574094753971601</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.87457042538382</v>
       </c>
       <c r="K2">
-        <v>12.34021683542027</v>
+        <v>16.88981108056968</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.94835790209243</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +465,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81410379899892</v>
+        <v>12.59455004372478</v>
       </c>
       <c r="C3">
-        <v>7.290420831100562</v>
+        <v>9.736453359687962</v>
       </c>
       <c r="D3">
-        <v>10.08885564833401</v>
+        <v>4.414693844442056</v>
       </c>
       <c r="E3">
-        <v>27.00974645894351</v>
+        <v>27.19881768049758</v>
       </c>
       <c r="F3">
-        <v>60.42350809916155</v>
+        <v>22.98601446226621</v>
       </c>
       <c r="G3">
-        <v>2.110379344578891</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.60474562427307</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.601498453889049</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.79108790776395</v>
       </c>
       <c r="K3">
-        <v>11.43838678255556</v>
+        <v>16.77937716285724</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.18031445364975</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +515,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.14487692265738</v>
+        <v>12.03512784951672</v>
       </c>
       <c r="C4">
-        <v>6.917030431193877</v>
+        <v>9.309352204275163</v>
       </c>
       <c r="D4">
-        <v>9.802967662794206</v>
+        <v>4.389313320016621</v>
       </c>
       <c r="E4">
-        <v>25.5982802383252</v>
+        <v>25.83117426656849</v>
       </c>
       <c r="F4">
-        <v>58.08471870783401</v>
+        <v>22.55282476884853</v>
       </c>
       <c r="G4">
-        <v>2.118247050400991</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>30.93533333684066</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.751030511612222</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.74401721486984</v>
       </c>
       <c r="K4">
-        <v>10.86135270024674</v>
+        <v>16.71617468553001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.68510618176634</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +565,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.86508348315788</v>
+        <v>11.79709645849852</v>
       </c>
       <c r="C5">
-        <v>6.761481963420876</v>
+        <v>9.139964308979696</v>
       </c>
       <c r="D5">
-        <v>9.685102888849469</v>
+        <v>4.380109348109562</v>
       </c>
       <c r="E5">
-        <v>25.00912561261854</v>
+        <v>25.25766933836995</v>
       </c>
       <c r="F5">
-        <v>57.11499412373422</v>
+        <v>22.36033038949168</v>
       </c>
       <c r="G5">
-        <v>2.121483249008945</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>30.63264007631149</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.816421819406776</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.72030136446892</v>
       </c>
       <c r="K5">
-        <v>10.62013735977565</v>
+        <v>16.67919779977925</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.47893799944141</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +615,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81819087076451</v>
+        <v>11.75430695555326</v>
       </c>
       <c r="C6">
-        <v>6.735443867269346</v>
+        <v>9.122347181938787</v>
       </c>
       <c r="D6">
-        <v>9.665449479824723</v>
+        <v>4.380167403717818</v>
       </c>
       <c r="E6">
-        <v>24.91043594039932</v>
+        <v>25.1613126435766</v>
       </c>
       <c r="F6">
-        <v>56.95297483523027</v>
+        <v>22.30811286329828</v>
       </c>
       <c r="G6">
-        <v>2.122022567650285</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>30.54567927318104</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.831396375219301</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.70963771426604</v>
       </c>
       <c r="K6">
-        <v>10.57971145730306</v>
+        <v>16.65806072713827</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.44624438183706</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +665,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14113244744224</v>
+        <v>12.02448842267539</v>
       </c>
       <c r="C7">
-        <v>6.914946587117436</v>
+        <v>9.335788919612019</v>
       </c>
       <c r="D7">
-        <v>9.801383606735413</v>
+        <v>4.393581605020616</v>
       </c>
       <c r="E7">
-        <v>25.59039204625535</v>
+        <v>25.82309197403998</v>
       </c>
       <c r="F7">
-        <v>58.07170772999952</v>
+        <v>22.49533636998523</v>
       </c>
       <c r="G7">
-        <v>2.118290567053943</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>30.83206653179768</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.762677888108712</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.72521774787062</v>
       </c>
       <c r="K7">
-        <v>10.85812442103429</v>
+        <v>16.67462256446903</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.68742907306786</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +715,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50461887623752</v>
+        <v>13.15581665314544</v>
       </c>
       <c r="C8">
-        <v>7.677761759295934</v>
+        <v>10.21329946887541</v>
       </c>
       <c r="D8">
-        <v>10.38926932953432</v>
+        <v>4.44721063538487</v>
       </c>
       <c r="E8">
-        <v>28.46991380393672</v>
+        <v>28.60360306686419</v>
       </c>
       <c r="F8">
-        <v>62.86183254891111</v>
+        <v>23.37994723698906</v>
       </c>
       <c r="G8">
-        <v>2.102072602324935</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.19272726146929</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.499162977520592</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.82075749519268</v>
       </c>
       <c r="K8">
-        <v>12.0339707473161</v>
+        <v>16.79697513743305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.69473668155672</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +765,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.97270660469032</v>
+        <v>15.14272804557681</v>
       </c>
       <c r="C9">
-        <v>9.081183224594119</v>
+        <v>11.76070872987009</v>
       </c>
       <c r="D9">
-        <v>11.50060020313689</v>
+        <v>4.538930964063568</v>
       </c>
       <c r="E9">
-        <v>33.72848150236941</v>
+        <v>33.5748641285888</v>
       </c>
       <c r="F9">
-        <v>71.73055494194213</v>
+        <v>25.21614679139734</v>
       </c>
       <c r="G9">
-        <v>2.070801449576751</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>35.01449881133584</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.046652758284549</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.07559412004287</v>
       </c>
       <c r="K9">
-        <v>14.16557047176945</v>
+        <v>17.14856010554421</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.47412533213407</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +815,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67880040255701</v>
+        <v>16.45335434001964</v>
       </c>
       <c r="C10">
-        <v>10.0707043383839</v>
+        <v>12.83471770692497</v>
       </c>
       <c r="D10">
-        <v>12.29574255579062</v>
+        <v>4.605205565942535</v>
       </c>
       <c r="E10">
-        <v>37.4094044319177</v>
+        <v>36.95566347594156</v>
       </c>
       <c r="F10">
-        <v>77.95118851606007</v>
+        <v>26.53874963744945</v>
       </c>
       <c r="G10">
-        <v>2.047726048535091</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.02549325533126</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.437617108920255</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.27784481594332</v>
       </c>
       <c r="K10">
-        <v>15.64280674083355</v>
+        <v>17.41488635176063</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.66989470931165</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +865,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43671821547934</v>
+        <v>17.00957619149554</v>
       </c>
       <c r="C11">
-        <v>10.51595494924174</v>
+        <v>13.34174789531653</v>
       </c>
       <c r="D11">
-        <v>12.65436633784723</v>
+        <v>4.642516876733334</v>
       </c>
       <c r="E11">
-        <v>39.05955641110484</v>
+        <v>38.43942158471177</v>
       </c>
       <c r="F11">
-        <v>80.72765941277196</v>
+        <v>27.06491734412135</v>
       </c>
       <c r="G11">
-        <v>2.037088252902143</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>37.8037317796464</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.616136914208538</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.34758096533382</v>
       </c>
       <c r="K11">
-        <v>16.30031406076174</v>
+        <v>17.47996945677289</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.19580390069003</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +915,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.72162691865889</v>
+        <v>17.22074232851271</v>
       </c>
       <c r="C12">
-        <v>10.68428516123184</v>
+        <v>13.51294419329519</v>
       </c>
       <c r="D12">
-        <v>12.78990534453297</v>
+        <v>4.652322217046902</v>
       </c>
       <c r="E12">
-        <v>39.68253547095798</v>
+        <v>38.99462584086601</v>
       </c>
       <c r="F12">
-        <v>81.77265684761484</v>
+        <v>27.30446052395847</v>
       </c>
       <c r="G12">
-        <v>2.033027463597001</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.16976328395042</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.681973386984203</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.38994344211224</v>
       </c>
       <c r="K12">
-        <v>16.54770076123674</v>
+        <v>17.53952861311376</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.38809757133865</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +965,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.66035069262789</v>
+        <v>17.17642580854263</v>
       </c>
       <c r="C13">
-        <v>10.64803679796366</v>
+        <v>13.47251785947128</v>
       </c>
       <c r="D13">
-        <v>12.76072290011979</v>
+        <v>4.64936285300581</v>
       </c>
       <c r="E13">
-        <v>39.54842090922009</v>
+        <v>38.87546099197748</v>
       </c>
       <c r="F13">
-        <v>81.54785787794808</v>
+        <v>27.26086055297097</v>
       </c>
       <c r="G13">
-        <v>2.033903694491131</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.1051286258071</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.667459222361642</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.38378321890108</v>
       </c>
       <c r="K13">
-        <v>16.49448383351052</v>
+        <v>17.53339984613286</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>16.34616754025866</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1015,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.46019654497271</v>
+        <v>17.02745063732766</v>
       </c>
       <c r="C14">
-        <v>10.52980636381285</v>
+        <v>13.3543109336166</v>
       </c>
       <c r="D14">
-        <v>12.66552128521662</v>
+        <v>4.642963907801071</v>
       </c>
       <c r="E14">
-        <v>39.11083689026047</v>
+        <v>38.48528037329809</v>
       </c>
       <c r="F14">
-        <v>80.81375143864315</v>
+        <v>27.08803909324082</v>
       </c>
       <c r="G14">
-        <v>2.036754899593709</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>37.8399157017111</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.621402743822599</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.35232739109477</v>
       </c>
       <c r="K14">
-        <v>16.3206955848856</v>
+        <v>17.48772011149953</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>16.21140649666524</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1065,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33734020114859</v>
+        <v>16.93369586487821</v>
       </c>
       <c r="C15">
-        <v>10.45736493410755</v>
+        <v>13.28894112586811</v>
       </c>
       <c r="D15">
-        <v>12.60717940236582</v>
+        <v>4.640706923809077</v>
       </c>
       <c r="E15">
-        <v>38.84261031460015</v>
+        <v>38.24517801083642</v>
       </c>
       <c r="F15">
-        <v>80.36330186017408</v>
+        <v>26.9662549360528</v>
       </c>
       <c r="G15">
-        <v>2.038496707970573</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>37.64912457542069</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.593950099542678</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.32723188549349</v>
       </c>
       <c r="K15">
-        <v>16.21405337693335</v>
+        <v>17.4465402715824</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>16.12975203411995</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1115,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6289446168209</v>
+        <v>16.39975907551787</v>
       </c>
       <c r="C16">
-        <v>10.04154234433967</v>
+        <v>12.86428258623753</v>
       </c>
       <c r="D16">
-        <v>12.27225772869728</v>
+        <v>4.616775853121715</v>
       </c>
       <c r="E16">
-        <v>37.30120286040043</v>
+        <v>36.85608989416946</v>
       </c>
       <c r="F16">
-        <v>77.76876743014284</v>
+        <v>26.36821371622168</v>
       </c>
       <c r="G16">
-        <v>2.048417429571088</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>36.73232048495007</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.43168805499519</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.22294643954129</v>
       </c>
       <c r="K16">
-        <v>15.59958497170111</v>
+        <v>17.29758854668444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.64654837544555</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1165,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19004537500432</v>
+        <v>16.06427897981298</v>
       </c>
       <c r="C17">
-        <v>9.785474458503471</v>
+        <v>12.60003150510964</v>
       </c>
       <c r="D17">
-        <v>12.06611535219726</v>
+        <v>4.601810195296126</v>
       </c>
       <c r="E17">
-        <v>36.35040637231811</v>
+        <v>35.99065828956117</v>
       </c>
       <c r="F17">
-        <v>76.16424285958236</v>
+        <v>26.00102801250907</v>
       </c>
       <c r="G17">
-        <v>2.05445945426011</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.16861151607002</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.331909019129294</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.16062584851403</v>
       </c>
       <c r="K17">
-        <v>15.21923447813492</v>
+        <v>17.20840329757475</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15.34395466934831</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1215,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.93585355736098</v>
+        <v>15.87356291989366</v>
       </c>
       <c r="C18">
-        <v>9.637701046415632</v>
+        <v>12.42691668904451</v>
       </c>
       <c r="D18">
-        <v>11.94724326948085</v>
+        <v>4.588844629996842</v>
       </c>
       <c r="E18">
-        <v>35.80113138149256</v>
+        <v>35.48830260140336</v>
       </c>
       <c r="F18">
-        <v>75.2362469810414</v>
+        <v>25.83183736591547</v>
       </c>
       <c r="G18">
-        <v>2.057922285128603</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>35.91898487202817</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.271695944762243</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.14078124265529</v>
       </c>
       <c r="K18">
-        <v>14.99906861339972</v>
+        <v>17.19237585026863</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.16403784117612</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1265,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.84947405577971</v>
+        <v>15.80450087037231</v>
       </c>
       <c r="C19">
-        <v>9.587571710993251</v>
+        <v>12.38323373733441</v>
       </c>
       <c r="D19">
-        <v>11.9069382506357</v>
+        <v>4.587718128242885</v>
       </c>
       <c r="E19">
-        <v>35.61470036632031</v>
+        <v>35.31697869343151</v>
       </c>
       <c r="F19">
-        <v>74.92113179039951</v>
+        <v>25.74212304957356</v>
       </c>
       <c r="G19">
-        <v>2.059092948683817</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>35.77660765614763</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.253303915401212</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.12228612786005</v>
       </c>
       <c r="K19">
-        <v>14.92427069641495</v>
+        <v>17.16049135150895</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.10549321577983</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1315,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.23694448436325</v>
+        <v>16.10069600154404</v>
       </c>
       <c r="C20">
-        <v>9.812781208276144</v>
+        <v>12.62677717783336</v>
       </c>
       <c r="D20">
-        <v>12.08808992269221</v>
+        <v>4.603078737937881</v>
       </c>
       <c r="E20">
-        <v>36.45185836190883</v>
+        <v>36.08333945445188</v>
       </c>
       <c r="F20">
-        <v>76.33556860661457</v>
+        <v>26.04340164625882</v>
       </c>
       <c r="G20">
-        <v>2.05381763302869</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.23450252892827</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.34232613046594</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.16840306262951</v>
       </c>
       <c r="K20">
-        <v>15.25986492265206</v>
+        <v>17.22051396211162</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.37612313867414</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1365,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51903897717073</v>
+        <v>17.06588696198901</v>
       </c>
       <c r="C21">
-        <v>10.56453717855506</v>
+        <v>13.40963775496939</v>
       </c>
       <c r="D21">
-        <v>12.69348977511485</v>
+        <v>4.649641460131569</v>
       </c>
       <c r="E21">
-        <v>39.23940293087072</v>
+        <v>38.59952042360361</v>
       </c>
       <c r="F21">
-        <v>81.02953773641919</v>
+        <v>27.09393107409791</v>
       </c>
       <c r="G21">
-        <v>2.035918423430066</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>37.83815779995162</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.637139873453103</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.34467916342827</v>
       </c>
       <c r="K21">
-        <v>16.37178038546273</v>
+        <v>17.46323248572158</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.25484524521297</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1415,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34505167537053</v>
+        <v>17.67790468699165</v>
       </c>
       <c r="C22">
-        <v>11.05450753807047</v>
+        <v>13.88335003721738</v>
       </c>
       <c r="D22">
-        <v>13.08773832304826</v>
+        <v>4.673011029732201</v>
       </c>
       <c r="E22">
-        <v>41.05118049739585</v>
+        <v>40.20342171815889</v>
       </c>
       <c r="F22">
-        <v>84.06093779563648</v>
+        <v>27.83623951422912</v>
       </c>
       <c r="G22">
-        <v>2.024023253354891</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>38.98295130051711</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.826292271898624</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.48689064008123</v>
       </c>
       <c r="K22">
-        <v>17.08947382758577</v>
+        <v>17.67739441016623</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.80439919254801</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1465,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.90508343905093</v>
+        <v>17.36009002147128</v>
       </c>
       <c r="C23">
-        <v>10.79295919910309</v>
+        <v>13.60706770306756</v>
       </c>
       <c r="D23">
-        <v>12.87737608822606</v>
+        <v>4.654857108288978</v>
       </c>
       <c r="E23">
-        <v>40.08449410800627</v>
+        <v>39.35165766566043</v>
       </c>
       <c r="F23">
-        <v>82.44582817268743</v>
+        <v>27.49388149704015</v>
       </c>
       <c r="G23">
-        <v>2.030394697474126</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.46764959605741</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.723125369262737</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.43072324584695</v>
       </c>
       <c r="K23">
-        <v>16.70706391916245</v>
+        <v>17.60792367998068</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.5084100012444</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1515,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.21574723693564</v>
+        <v>16.09507954971944</v>
       </c>
       <c r="C24">
-        <v>9.800437591311436</v>
+        <v>12.57348370593752</v>
       </c>
       <c r="D24">
-        <v>12.07815634764454</v>
+        <v>4.593515050554648</v>
       </c>
       <c r="E24">
-        <v>36.4060002857472</v>
+        <v>36.04244031347307</v>
       </c>
       <c r="F24">
-        <v>76.25812956293015</v>
+        <v>26.11262710077296</v>
       </c>
       <c r="G24">
-        <v>2.054107833185187</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>36.36216930864156</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.332875564368789</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.19739534196896</v>
       </c>
       <c r="K24">
-        <v>15.24150059793919</v>
+        <v>17.28787346383734</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.35407244822501</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1565,60 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32534258410977</v>
+        <v>14.61972704164247</v>
       </c>
       <c r="C25">
-        <v>8.710033840256374</v>
+        <v>11.39881391362461</v>
       </c>
       <c r="D25">
-        <v>11.20410068181421</v>
+        <v>4.523197679821768</v>
       </c>
       <c r="E25">
-        <v>32.34241105512557</v>
+        <v>32.278528234834</v>
       </c>
       <c r="F25">
-        <v>69.38585310746174</v>
+        <v>24.62895523577006</v>
       </c>
       <c r="G25">
-        <v>2.079243927110146</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>34.09204023942883</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.904686495716349</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.97038070889245</v>
       </c>
       <c r="K25">
-        <v>13.60593272835668</v>
+        <v>16.97674691638031</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.02066828956665</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.45540074787469</v>
+        <v>13.33627521634286</v>
       </c>
       <c r="C2">
-        <v>10.40548060223844</v>
+        <v>10.98592110200168</v>
       </c>
       <c r="D2">
-        <v>4.454986844040684</v>
+        <v>4.564883620781463</v>
       </c>
       <c r="E2">
-        <v>29.32421710343202</v>
+        <v>29.33204029246004</v>
       </c>
       <c r="F2">
-        <v>23.69451908300793</v>
+        <v>22.12720088717913</v>
       </c>
       <c r="G2">
-        <v>32.69404442589753</v>
+        <v>29.38254345083796</v>
       </c>
       <c r="I2">
-        <v>2.574094753971601</v>
+        <v>2.638411651221355</v>
       </c>
       <c r="J2">
-        <v>10.87457042538382</v>
+        <v>10.72919130831678</v>
       </c>
       <c r="K2">
-        <v>16.88981108056968</v>
+        <v>15.57389382010134</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.32684086024055</v>
       </c>
       <c r="M2">
-        <v>12.94835790209243</v>
+        <v>9.827140957961401</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.09192817696824</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -471,49 +477,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59455004372478</v>
+        <v>12.51675951392187</v>
       </c>
       <c r="C3">
-        <v>9.736453359687962</v>
+        <v>10.20978079957974</v>
       </c>
       <c r="D3">
-        <v>4.414693844442056</v>
+        <v>4.481605320574213</v>
       </c>
       <c r="E3">
-        <v>27.19881768049758</v>
+        <v>27.21457620915876</v>
       </c>
       <c r="F3">
-        <v>22.98601446226621</v>
+        <v>21.59471762400626</v>
       </c>
       <c r="G3">
-        <v>31.60474562427307</v>
+        <v>28.63115259511895</v>
       </c>
       <c r="I3">
-        <v>2.601498453889049</v>
+        <v>2.506960568713227</v>
       </c>
       <c r="J3">
-        <v>10.79108790776395</v>
+        <v>10.66172477487951</v>
       </c>
       <c r="K3">
-        <v>16.77937716285724</v>
+        <v>15.59253581000535</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.43821465592745</v>
       </c>
       <c r="M3">
-        <v>12.18031445364975</v>
+        <v>9.730456762895653</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.3159402947626</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -521,49 +533,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.03512784951672</v>
+        <v>11.98440147387676</v>
       </c>
       <c r="C4">
-        <v>9.309352204275163</v>
+        <v>9.712301317861263</v>
       </c>
       <c r="D4">
-        <v>4.389313320016621</v>
+        <v>4.429797042894292</v>
       </c>
       <c r="E4">
-        <v>25.83117426656849</v>
+        <v>25.85107358878927</v>
       </c>
       <c r="F4">
-        <v>22.55282476884853</v>
+        <v>21.27059794687393</v>
       </c>
       <c r="G4">
-        <v>30.93533333684066</v>
+        <v>28.17873271757683</v>
       </c>
       <c r="I4">
-        <v>2.751030511612222</v>
+        <v>2.635722298551713</v>
       </c>
       <c r="J4">
-        <v>10.74401721486984</v>
+        <v>10.6210593293968</v>
       </c>
       <c r="K4">
-        <v>16.71617468553001</v>
+        <v>15.60698113754563</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.50444677180439</v>
       </c>
       <c r="M4">
-        <v>11.68510618176634</v>
+        <v>9.694415812779255</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.8154051543135</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -571,49 +589,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.79709645849852</v>
+        <v>11.75803818364497</v>
       </c>
       <c r="C5">
-        <v>9.139964308979696</v>
+        <v>9.51291480124071</v>
       </c>
       <c r="D5">
-        <v>4.380109348109562</v>
+        <v>4.410050252501361</v>
       </c>
       <c r="E5">
-        <v>25.25766933836995</v>
+        <v>25.27910581847053</v>
       </c>
       <c r="F5">
-        <v>22.36033038949168</v>
+        <v>21.12428229433185</v>
       </c>
       <c r="G5">
-        <v>30.63264007631149</v>
+        <v>27.96930217386344</v>
       </c>
       <c r="I5">
-        <v>2.816421819406776</v>
+        <v>2.693090073903588</v>
       </c>
       <c r="J5">
-        <v>10.72030136446892</v>
+        <v>10.59975787256973</v>
       </c>
       <c r="K5">
-        <v>16.67919779977925</v>
+        <v>15.60295046027282</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.52196029557238</v>
       </c>
       <c r="M5">
-        <v>11.47893799944141</v>
+        <v>9.678460230236945</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.60686905272731</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -621,49 +645,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75430695555326</v>
+        <v>11.71744578051222</v>
       </c>
       <c r="C6">
-        <v>9.122347181938787</v>
+        <v>9.490051052539366</v>
       </c>
       <c r="D6">
-        <v>4.380167403717818</v>
+        <v>4.408633561595123</v>
       </c>
       <c r="E6">
-        <v>25.1613126435766</v>
+        <v>25.18301161132153</v>
       </c>
       <c r="F6">
-        <v>22.30811286329828</v>
+        <v>21.08168681220636</v>
       </c>
       <c r="G6">
-        <v>30.54567927318104</v>
+        <v>27.90126265112233</v>
       </c>
       <c r="I6">
-        <v>2.831396375219301</v>
+        <v>2.707402415497903</v>
       </c>
       <c r="J6">
-        <v>10.70963771426604</v>
+        <v>10.59023035970787</v>
       </c>
       <c r="K6">
-        <v>16.65806072713827</v>
+        <v>15.58936490867226</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.51393085180554</v>
       </c>
       <c r="M6">
-        <v>11.44624438183706</v>
+        <v>9.667469265731368</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.57365227125422</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -671,49 +701,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02448842267539</v>
+        <v>11.97586618425668</v>
       </c>
       <c r="C7">
-        <v>9.335788919612019</v>
+        <v>9.729152997821929</v>
       </c>
       <c r="D7">
-        <v>4.393581605020616</v>
+        <v>4.437926594920811</v>
       </c>
       <c r="E7">
-        <v>25.82309197403998</v>
+        <v>25.84278392361109</v>
       </c>
       <c r="F7">
-        <v>22.49533636998523</v>
+        <v>21.18956073883994</v>
       </c>
       <c r="G7">
-        <v>30.83206653179768</v>
+        <v>28.1506454611068</v>
       </c>
       <c r="I7">
-        <v>2.762677888108712</v>
+        <v>2.649763869360202</v>
       </c>
       <c r="J7">
-        <v>10.72521774787062</v>
+        <v>10.55312112438804</v>
       </c>
       <c r="K7">
-        <v>16.67462256446903</v>
+        <v>15.5558412423512</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.46241811270296</v>
       </c>
       <c r="M7">
-        <v>11.68742907306786</v>
+        <v>9.658920230901089</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.81527354686038</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -721,49 +757,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15581665314544</v>
+        <v>13.05549971025172</v>
       </c>
       <c r="C8">
-        <v>10.21329946887541</v>
+        <v>10.73052192744408</v>
       </c>
       <c r="D8">
-        <v>4.44721063538487</v>
+        <v>4.554360836005027</v>
       </c>
       <c r="E8">
-        <v>28.60360306686419</v>
+        <v>28.61344009052091</v>
       </c>
       <c r="F8">
-        <v>23.37994723698906</v>
+        <v>21.78538128607726</v>
       </c>
       <c r="G8">
-        <v>32.19272726146929</v>
+        <v>29.21736977925195</v>
       </c>
       <c r="I8">
-        <v>2.499162977520592</v>
+        <v>2.573397038711274</v>
       </c>
       <c r="J8">
-        <v>10.82075749519268</v>
+        <v>10.51712149760144</v>
       </c>
       <c r="K8">
-        <v>16.79697513743305</v>
+        <v>15.48196582667025</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.28933752147013</v>
       </c>
       <c r="M8">
-        <v>12.69473668155672</v>
+        <v>9.715836744533206</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.8288324678706</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -771,49 +813,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.14272804557681</v>
+        <v>14.94744413489539</v>
       </c>
       <c r="C9">
-        <v>11.76070872987009</v>
+        <v>12.51709171362279</v>
       </c>
       <c r="D9">
-        <v>4.538930964063568</v>
+        <v>4.755144625418209</v>
       </c>
       <c r="E9">
-        <v>33.5748641285888</v>
+        <v>33.55937771075344</v>
       </c>
       <c r="F9">
-        <v>25.21614679139734</v>
+        <v>23.16750351827594</v>
       </c>
       <c r="G9">
-        <v>35.01449881133584</v>
+        <v>31.29132297304592</v>
       </c>
       <c r="I9">
-        <v>3.046652758284549</v>
+        <v>3.043143276844378</v>
       </c>
       <c r="J9">
-        <v>11.07559412004287</v>
+        <v>10.66683896389905</v>
       </c>
       <c r="K9">
-        <v>17.14856010554421</v>
+        <v>15.48353931588034</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.02778070506743</v>
       </c>
       <c r="M9">
-        <v>14.47412533213407</v>
+        <v>10.10033354599488</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.6243705578848</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -821,49 +869,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.45335434001964</v>
+        <v>16.20082922878382</v>
       </c>
       <c r="C10">
-        <v>12.83471770692497</v>
+        <v>13.70632676197138</v>
       </c>
       <c r="D10">
-        <v>4.605205565942535</v>
+        <v>4.921159930151138</v>
       </c>
       <c r="E10">
-        <v>36.95566347594156</v>
+        <v>36.91373675430548</v>
       </c>
       <c r="F10">
-        <v>26.53874963744945</v>
+        <v>24.0234413988153</v>
       </c>
       <c r="G10">
-        <v>37.02549325533126</v>
+        <v>33.15442752854713</v>
       </c>
       <c r="I10">
-        <v>3.437617108920255</v>
+        <v>3.376125173631572</v>
       </c>
       <c r="J10">
-        <v>11.27784481594332</v>
+        <v>10.49395739677286</v>
       </c>
       <c r="K10">
-        <v>17.41488635176063</v>
+        <v>15.40184450396415</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.75385353362502</v>
       </c>
       <c r="M10">
-        <v>15.66989470931165</v>
+        <v>10.40505998970341</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.81898602631838</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -871,49 +925,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00957619149554</v>
+        <v>16.74328049472983</v>
       </c>
       <c r="C11">
-        <v>13.34174789531653</v>
+        <v>14.19619140672289</v>
       </c>
       <c r="D11">
-        <v>4.642516876733334</v>
+        <v>5.041437025563013</v>
       </c>
       <c r="E11">
-        <v>38.43942158471177</v>
+        <v>38.38041855875627</v>
       </c>
       <c r="F11">
-        <v>27.06491734412135</v>
+        <v>24.09255861907311</v>
       </c>
       <c r="G11">
-        <v>37.8037317796464</v>
+        <v>34.47308356677594</v>
       </c>
       <c r="I11">
-        <v>3.616136914208538</v>
+        <v>3.52523945441247</v>
       </c>
       <c r="J11">
-        <v>11.34758096533382</v>
+        <v>9.919982733304083</v>
       </c>
       <c r="K11">
-        <v>17.47996945677289</v>
+        <v>15.16422693490498</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.49117400148084</v>
       </c>
       <c r="M11">
-        <v>16.19580390069003</v>
+        <v>10.39058709135183</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.32735437458946</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -921,49 +981,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22074232851271</v>
+        <v>16.95018572725958</v>
       </c>
       <c r="C12">
-        <v>13.51294419329519</v>
+        <v>14.35373567354453</v>
       </c>
       <c r="D12">
-        <v>4.652322217046902</v>
+        <v>5.086846868097593</v>
       </c>
       <c r="E12">
-        <v>38.99462584086601</v>
+        <v>38.92836195710351</v>
       </c>
       <c r="F12">
-        <v>27.30446052395847</v>
+        <v>24.12539583796229</v>
       </c>
       <c r="G12">
-        <v>38.16976328395042</v>
+        <v>35.10974893654308</v>
       </c>
       <c r="I12">
-        <v>3.681973386984203</v>
+        <v>3.578464609341866</v>
       </c>
       <c r="J12">
-        <v>11.38994344211224</v>
+        <v>9.663885420682945</v>
       </c>
       <c r="K12">
-        <v>17.53952861311376</v>
+        <v>15.08467810520246</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.39944836139456</v>
       </c>
       <c r="M12">
-        <v>16.38809757133865</v>
+        <v>10.39555282460347</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.51133672902029</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -971,49 +1037,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17642580854263</v>
+        <v>16.9066410026794</v>
       </c>
       <c r="C13">
-        <v>13.47251785947128</v>
+        <v>14.31669990337625</v>
       </c>
       <c r="D13">
-        <v>4.64936285300581</v>
+        <v>5.075825521533536</v>
       </c>
       <c r="E13">
-        <v>38.87546099197748</v>
+        <v>38.81077740184936</v>
       </c>
       <c r="F13">
-        <v>27.26086055297097</v>
+        <v>24.12686917352256</v>
       </c>
       <c r="G13">
-        <v>38.1051286258071</v>
+        <v>34.98241499771825</v>
       </c>
       <c r="I13">
-        <v>3.667459222361642</v>
+        <v>3.566466283097811</v>
       </c>
       <c r="J13">
-        <v>11.38378321890108</v>
+        <v>9.723470780129082</v>
       </c>
       <c r="K13">
-        <v>17.53339984613286</v>
+        <v>15.10828897368493</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.42347618774937</v>
       </c>
       <c r="M13">
-        <v>16.34616754025866</v>
+        <v>10.39990735656536</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.47131462197678</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1021,49 +1093,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02745063732766</v>
+        <v>16.76074074250674</v>
       </c>
       <c r="C14">
-        <v>13.3543109336166</v>
+        <v>14.20783120020575</v>
       </c>
       <c r="D14">
-        <v>4.642963907801071</v>
+        <v>5.044643422121832</v>
       </c>
       <c r="E14">
-        <v>38.48528037329809</v>
+        <v>38.42568797927905</v>
       </c>
       <c r="F14">
-        <v>27.08803909324082</v>
+        <v>24.09894300545239</v>
       </c>
       <c r="G14">
-        <v>37.8399157017111</v>
+        <v>34.52957231576155</v>
       </c>
       <c r="I14">
-        <v>3.621402743822599</v>
+        <v>3.529382172750033</v>
       </c>
       <c r="J14">
-        <v>11.35232739109477</v>
+        <v>9.900887152480948</v>
       </c>
       <c r="K14">
-        <v>17.48772011149953</v>
+        <v>15.16046480020908</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.48547293739516</v>
       </c>
       <c r="M14">
-        <v>16.21140649666524</v>
+        <v>10.39331824679886</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.34232576792111</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1071,49 +1149,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.93369586487821</v>
+        <v>16.66921673309739</v>
       </c>
       <c r="C15">
-        <v>13.28894112586811</v>
+        <v>14.14697107050396</v>
       </c>
       <c r="D15">
-        <v>4.640706923809077</v>
+        <v>5.028167439724404</v>
       </c>
       <c r="E15">
-        <v>38.24517801083642</v>
+        <v>38.18863937176418</v>
       </c>
       <c r="F15">
-        <v>26.9662549360528</v>
+        <v>24.06356121430269</v>
       </c>
       <c r="G15">
-        <v>37.64912457542069</v>
+        <v>34.23565449752785</v>
       </c>
       <c r="I15">
-        <v>3.593950099542678</v>
+        <v>3.50781732559329</v>
       </c>
       <c r="J15">
-        <v>11.32723188549349</v>
+        <v>9.998428437673446</v>
       </c>
       <c r="K15">
-        <v>17.4465402715824</v>
+        <v>15.17880297040403</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.51438906766793</v>
       </c>
       <c r="M15">
-        <v>16.12975203411995</v>
+        <v>10.37798959483243</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.26389306201945</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1121,49 +1205,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.39975907551787</v>
+        <v>16.14974866804125</v>
       </c>
       <c r="C16">
-        <v>12.86428258623753</v>
+        <v>13.73414423047559</v>
       </c>
       <c r="D16">
-        <v>4.616775853121715</v>
+        <v>4.930313284745731</v>
       </c>
       <c r="E16">
-        <v>36.85608989416946</v>
+        <v>36.81541983858759</v>
       </c>
       <c r="F16">
-        <v>26.36821371622168</v>
+        <v>23.89171828517572</v>
       </c>
       <c r="G16">
-        <v>36.73232048495007</v>
+        <v>32.8564092267554</v>
       </c>
       <c r="I16">
-        <v>3.43168805499519</v>
+        <v>3.375540561262538</v>
       </c>
       <c r="J16">
-        <v>11.22294643954129</v>
+        <v>10.48239954554271</v>
       </c>
       <c r="K16">
-        <v>17.29758854668444</v>
+        <v>15.31911614376613</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.70395127472425</v>
       </c>
       <c r="M16">
-        <v>15.64654837544555</v>
+        <v>10.32386778435721</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.79586941771441</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1171,49 +1261,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.06427897981298</v>
+        <v>15.82556500143665</v>
       </c>
       <c r="C17">
-        <v>12.60003150510964</v>
+        <v>13.46312276323969</v>
       </c>
       <c r="D17">
-        <v>4.601810195296126</v>
+        <v>4.878033903605477</v>
       </c>
       <c r="E17">
-        <v>35.99065828956117</v>
+        <v>35.95848272552569</v>
       </c>
       <c r="F17">
-        <v>26.00102801250907</v>
+        <v>23.73360848774613</v>
       </c>
       <c r="G17">
-        <v>36.16861151607002</v>
+        <v>32.13532136533379</v>
       </c>
       <c r="I17">
-        <v>3.331909019129294</v>
+        <v>3.293230490605184</v>
       </c>
       <c r="J17">
-        <v>11.16062584851403</v>
+        <v>10.68238664323597</v>
       </c>
       <c r="K17">
-        <v>17.20840329757475</v>
+        <v>15.37414341630673</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.79908312688842</v>
       </c>
       <c r="M17">
-        <v>15.34395466934831</v>
+        <v>10.26820181373849</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.4991732702112</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1221,49 +1317,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.87356291989366</v>
+        <v>15.64178987220104</v>
       </c>
       <c r="C18">
-        <v>12.42691668904451</v>
+        <v>13.28140787833193</v>
       </c>
       <c r="D18">
-        <v>4.588844629996842</v>
+        <v>4.845725595484669</v>
       </c>
       <c r="E18">
-        <v>35.48830260140336</v>
+        <v>35.46051184041139</v>
       </c>
       <c r="F18">
-        <v>25.83183736591547</v>
+        <v>23.66163142032692</v>
       </c>
       <c r="G18">
-        <v>35.91898487202817</v>
+        <v>31.83432283431823</v>
       </c>
       <c r="I18">
-        <v>3.271695944762243</v>
+        <v>3.241465800824388</v>
       </c>
       <c r="J18">
-        <v>11.14078124265529</v>
+        <v>10.77416150841682</v>
       </c>
       <c r="K18">
-        <v>17.19237585026863</v>
+        <v>15.42404608668522</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.86639408476964</v>
       </c>
       <c r="M18">
-        <v>15.16403784117612</v>
+        <v>10.25275150985015</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.32158109524332</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1271,49 +1373,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.80450087037231</v>
+        <v>15.57556831292672</v>
       </c>
       <c r="C19">
-        <v>12.38323373733441</v>
+        <v>13.2334962071113</v>
       </c>
       <c r="D19">
-        <v>4.587718128242885</v>
+        <v>4.839006402462604</v>
       </c>
       <c r="E19">
-        <v>35.31697869343151</v>
+        <v>35.2906529040186</v>
       </c>
       <c r="F19">
-        <v>25.74212304957356</v>
+        <v>23.60469316993193</v>
       </c>
       <c r="G19">
-        <v>35.77660765614763</v>
+        <v>31.68722292991521</v>
       </c>
       <c r="I19">
-        <v>3.253303915401212</v>
+        <v>3.226807090305343</v>
       </c>
       <c r="J19">
-        <v>11.12228612786005</v>
+        <v>10.78891283263705</v>
       </c>
       <c r="K19">
-        <v>17.16049135150895</v>
+        <v>15.41650246371413</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.87213596916026</v>
       </c>
       <c r="M19">
-        <v>15.10549321577983</v>
+        <v>10.22747447864345</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.26344440162178</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1321,49 +1429,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10069600154404</v>
+        <v>15.86065371523566</v>
       </c>
       <c r="C20">
-        <v>12.62677717783336</v>
+        <v>13.49117218226029</v>
       </c>
       <c r="D20">
-        <v>4.603078737937881</v>
+        <v>4.882932598691147</v>
       </c>
       <c r="E20">
-        <v>36.08333945445188</v>
+        <v>36.05029967378105</v>
       </c>
       <c r="F20">
-        <v>26.04340164625882</v>
+        <v>23.75538602004659</v>
       </c>
       <c r="G20">
-        <v>36.23450252892827</v>
+        <v>32.21273055436376</v>
       </c>
       <c r="I20">
-        <v>3.34232613046594</v>
+        <v>3.30172686870049</v>
       </c>
       <c r="J20">
-        <v>11.16840306262951</v>
+        <v>10.66586769250742</v>
       </c>
       <c r="K20">
-        <v>17.22051396211162</v>
+        <v>15.37172552751745</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.79134508580448</v>
       </c>
       <c r="M20">
-        <v>15.37612313867414</v>
+        <v>10.27685142940448</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.53086149173349</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1371,49 +1485,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.06588696198901</v>
+        <v>16.80249854334123</v>
       </c>
       <c r="C21">
-        <v>13.40963775496939</v>
+        <v>14.2370317144192</v>
       </c>
       <c r="D21">
-        <v>4.649641460131569</v>
+        <v>5.072430681666594</v>
       </c>
       <c r="E21">
-        <v>38.59952042360361</v>
+        <v>38.53740057924861</v>
       </c>
       <c r="F21">
-        <v>27.09393107409791</v>
+        <v>23.97578375238702</v>
       </c>
       <c r="G21">
-        <v>37.83815779995162</v>
+        <v>34.7967283075374</v>
       </c>
       <c r="I21">
-        <v>3.637139873453103</v>
+        <v>3.541983726634347</v>
       </c>
       <c r="J21">
-        <v>11.34467916342827</v>
+        <v>9.674744192156833</v>
       </c>
       <c r="K21">
-        <v>17.46323248572158</v>
+        <v>15.05978328387619</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.41044754605504</v>
       </c>
       <c r="M21">
-        <v>16.25484524521297</v>
+        <v>10.32277821595443</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.37829041374042</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1421,49 +1541,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67790468699165</v>
+        <v>17.40044904315354</v>
       </c>
       <c r="C22">
-        <v>13.88335003721738</v>
+        <v>14.68083700546277</v>
       </c>
       <c r="D22">
-        <v>4.673011029732201</v>
+        <v>5.195188921659837</v>
       </c>
       <c r="E22">
-        <v>40.20342171815889</v>
+        <v>40.11986257902179</v>
       </c>
       <c r="F22">
-        <v>27.83623951422912</v>
+        <v>24.1481658676305</v>
       </c>
       <c r="G22">
-        <v>38.98295130051711</v>
+        <v>36.64821412903751</v>
       </c>
       <c r="I22">
-        <v>3.826292271898624</v>
+        <v>3.694230828117441</v>
       </c>
       <c r="J22">
-        <v>11.48689064008123</v>
+        <v>9.021520625994146</v>
       </c>
       <c r="K22">
-        <v>17.67739441016623</v>
+        <v>14.88009970181415</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.17954673624238</v>
       </c>
       <c r="M22">
-        <v>16.80439919254801</v>
+        <v>10.3843597428771</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.90616821272815</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1471,49 +1597,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.36009002147128</v>
+        <v>17.08680171754304</v>
       </c>
       <c r="C23">
-        <v>13.60706770306756</v>
+        <v>14.43748152389014</v>
       </c>
       <c r="D23">
-        <v>4.654857108288978</v>
+        <v>5.11303831851415</v>
       </c>
       <c r="E23">
-        <v>39.35165766566043</v>
+        <v>39.28043068741815</v>
       </c>
       <c r="F23">
-        <v>27.49388149704015</v>
+        <v>24.16968343413483</v>
       </c>
       <c r="G23">
-        <v>38.46764959605741</v>
+        <v>35.59732593162241</v>
       </c>
       <c r="I23">
-        <v>3.723125369262737</v>
+        <v>3.610436936432936</v>
       </c>
       <c r="J23">
-        <v>11.43072324584695</v>
+        <v>9.495305238109857</v>
       </c>
       <c r="K23">
-        <v>17.60792367998068</v>
+        <v>15.05293729681535</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.35332642811102</v>
       </c>
       <c r="M23">
-        <v>16.5084100012444</v>
+        <v>10.41595843926561</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.62594120545296</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1521,49 +1653,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09507954971944</v>
+        <v>15.85471118553897</v>
       </c>
       <c r="C24">
-        <v>12.57348370593752</v>
+        <v>13.43843160097865</v>
       </c>
       <c r="D24">
-        <v>4.593515050554648</v>
+        <v>4.870308643031652</v>
       </c>
       <c r="E24">
-        <v>36.04244031347307</v>
+        <v>36.0096460050456</v>
       </c>
       <c r="F24">
-        <v>26.11262710077296</v>
+        <v>23.82551920348228</v>
       </c>
       <c r="G24">
-        <v>36.36216930864156</v>
+        <v>32.32163686171718</v>
       </c>
       <c r="I24">
-        <v>3.332875564368789</v>
+        <v>3.290721397064269</v>
       </c>
       <c r="J24">
-        <v>11.19739534196896</v>
+        <v>10.70081102232036</v>
       </c>
       <c r="K24">
-        <v>17.28787346383734</v>
+        <v>15.4346505842146</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.83759725926526</v>
       </c>
       <c r="M24">
-        <v>15.35407244822501</v>
+        <v>10.32447749991988</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.50946182253801</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1571,54 +1709,66 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.61972704164247</v>
+        <v>14.44828412207901</v>
       </c>
       <c r="C25">
-        <v>11.39881391362461</v>
+        <v>12.10361767914499</v>
       </c>
       <c r="D25">
-        <v>4.523197679821768</v>
+        <v>4.706648256903303</v>
       </c>
       <c r="E25">
-        <v>32.278528234834</v>
+        <v>32.27135121160293</v>
       </c>
       <c r="F25">
-        <v>24.62895523577006</v>
+        <v>22.74841191920176</v>
       </c>
       <c r="G25">
-        <v>34.09204023942883</v>
+        <v>30.48840160125331</v>
       </c>
       <c r="I25">
-        <v>2.904686495716349</v>
+        <v>2.924738022031437</v>
       </c>
       <c r="J25">
-        <v>10.97038070889245</v>
+        <v>10.66840903884256</v>
       </c>
       <c r="K25">
-        <v>16.97674691638031</v>
+        <v>15.44028880422051</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.07166549717136</v>
       </c>
       <c r="M25">
-        <v>14.02066828956665</v>
+        <v>9.944879651231711</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.16915411908569</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
